--- a/StructureDefinition-ext-R5-Bundle.entry.xlsx
+++ b/StructureDefinition-ext-R5-Bundle.entry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -685,15 +685,6 @@
     <t>Extension.extension:search.extension:mode.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Why an entry is in the result set - whether it's included as a match or because of an _include requirement, or to convey information or warning information about the search process.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-entry-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:search.extension:score</t>
   </si>
   <si>
@@ -796,12 +787,6 @@
   </si>
   <si>
     <t>Extension.extension:request.extension:method.value[x]</t>
-  </si>
-  <si>
-    <t>HTTP verbs (in the HTTP command line). See [HTTP rfc](https://tools.ietf.org/html/rfc7231) for details.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-http-verb-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:request.extension:url</t>
@@ -1590,8 +1575,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6495,13 +6480,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6539,13 +6524,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6570,16 +6555,16 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6648,7 +6633,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>151</v>
@@ -6751,7 +6736,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>153</v>
@@ -6856,7 +6841,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>155</v>
@@ -6899,7 +6884,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6961,7 +6946,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>158</v>
@@ -6987,16 +6972,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7066,7 +7051,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7109,7 +7094,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7171,7 +7156,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -7274,13 +7259,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7305,14 +7290,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7381,7 +7366,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7484,7 +7469,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7495,7 +7480,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -7587,13 +7572,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7618,14 +7603,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7694,7 +7679,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>151</v>
@@ -7797,7 +7782,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>153</v>
@@ -7902,7 +7887,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>155</v>
@@ -7945,7 +7930,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8007,7 +7992,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>158</v>
@@ -8036,10 +8021,10 @@
         <v>191</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8066,13 +8051,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8110,13 +8095,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8141,16 +8126,16 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8219,7 +8204,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>151</v>
@@ -8322,7 +8307,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>153</v>
@@ -8427,7 +8412,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>155</v>
@@ -8470,7 +8455,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8532,7 +8517,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>158</v>
@@ -8561,13 +8546,13 @@
         <v>114</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8637,13 +8622,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8668,14 +8653,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8744,7 +8729,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>151</v>
@@ -8847,7 +8832,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>153</v>
@@ -8952,7 +8937,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>155</v>
@@ -8995,7 +8980,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9057,7 +9042,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>158</v>
@@ -9086,10 +9071,10 @@
         <v>87</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9160,13 +9145,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9191,14 +9176,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9267,7 +9252,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>151</v>
@@ -9370,7 +9355,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>153</v>
@@ -9475,7 +9460,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>155</v>
@@ -9518,7 +9503,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9580,7 +9565,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>158</v>
@@ -9606,13 +9591,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9683,13 +9668,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9714,14 +9699,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9775,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>151</v>
@@ -9893,7 +9878,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>153</v>
@@ -9998,7 +9983,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>155</v>
@@ -10041,7 +10026,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10103,7 +10088,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>158</v>
@@ -10132,10 +10117,10 @@
         <v>87</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10206,13 +10191,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10237,14 +10222,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10313,7 +10298,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>151</v>
@@ -10416,7 +10401,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>153</v>
@@ -10521,7 +10506,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>155</v>
@@ -10564,7 +10549,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10626,7 +10611,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>158</v>
@@ -10655,10 +10640,10 @@
         <v>87</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10729,7 +10714,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -10772,7 +10757,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10834,7 +10819,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -10937,13 +10922,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -10968,14 +10953,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11044,7 +11029,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -11147,7 +11132,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -11250,13 +11235,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11281,14 +11266,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11357,7 +11342,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>151</v>
@@ -11460,7 +11445,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>153</v>
@@ -11565,7 +11550,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>155</v>
@@ -11608,7 +11593,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11670,7 +11655,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>158</v>
@@ -11699,10 +11684,10 @@
         <v>87</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11773,13 +11758,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11804,14 +11789,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11880,7 +11865,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>151</v>
@@ -11983,7 +11968,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>153</v>
@@ -12088,7 +12073,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>155</v>
@@ -12131,7 +12116,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12193,7 +12178,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>158</v>
@@ -12222,10 +12207,10 @@
         <v>114</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12296,13 +12281,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12327,16 +12312,16 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12405,7 +12390,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>151</v>
@@ -12508,7 +12493,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>153</v>
@@ -12613,7 +12598,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>155</v>
@@ -12656,7 +12641,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12718,7 +12703,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>158</v>
@@ -12747,13 +12732,13 @@
         <v>87</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -12823,13 +12808,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12854,16 +12839,16 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12932,7 +12917,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>151</v>
@@ -13035,7 +13020,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>153</v>
@@ -13140,7 +13125,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>155</v>
@@ -13183,7 +13168,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13245,7 +13230,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>158</v>
@@ -13271,16 +13256,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13350,13 +13335,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13381,16 +13366,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13459,7 +13444,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>151</v>
@@ -13562,7 +13547,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>153</v>
@@ -13665,7 +13650,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>153</v>
@@ -13770,10 +13755,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13873,10 +13858,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13978,10 +13963,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14083,10 +14068,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14188,7 +14173,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>153</v>
@@ -14295,10 +14280,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14398,10 +14383,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14503,10 +14488,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14608,10 +14593,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14711,7 +14696,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>153</v>
@@ -14820,10 +14805,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14923,10 +14908,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15028,10 +15013,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15133,10 +15118,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15238,7 +15223,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>153</v>
@@ -15347,10 +15332,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15450,10 +15435,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15555,10 +15540,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15660,10 +15645,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15765,7 +15750,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>155</v>
@@ -15808,7 +15793,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15870,7 +15855,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>158</v>
@@ -15973,7 +15958,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>113</v>
@@ -16016,7 +16001,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16078,7 +16063,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>122</v>
